--- a/data/tehilim-data/7.xlsx
+++ b/data/tehilim-data/7.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="262">
   <si>
     <t>original</t>
   </si>
@@ -34,10 +34,16 @@
     <t>Давида</t>
   </si>
   <si>
-    <t>אֲשֶׁר־שָׁר</t>
-  </si>
-  <si>
-    <t>которое он пел</t>
+    <t>אֲשֶׁר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">которое </t>
+  </si>
+  <si>
+    <t>שָׁר</t>
+  </si>
+  <si>
+    <t>он пел</t>
   </si>
   <si>
     <t>לַיהוָה</t>
@@ -52,25 +58,43 @@
     <t>о делах Куша</t>
   </si>
   <si>
-    <t>בֶּן־יְמִינִי</t>
-  </si>
-  <si>
-    <t>сына Ямини</t>
+    <t>בֶּן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сына </t>
+  </si>
+  <si>
+    <t>יְמִינִי</t>
+  </si>
+  <si>
+    <t>Ямини</t>
   </si>
   <si>
     <t>ב</t>
   </si>
   <si>
-    <t>יְהוָה אֱלֹהַי</t>
-  </si>
-  <si>
-    <t>Господи, Боже мой</t>
-  </si>
-  <si>
-    <t>בְּךָ חָסִיתִי</t>
-  </si>
-  <si>
-    <t>на Тебя уповаю</t>
+    <t>יְהוָה</t>
+  </si>
+  <si>
+    <t>Господи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אֱלֹהַי</t>
+  </si>
+  <si>
+    <t>Боже мой</t>
+  </si>
+  <si>
+    <t>בְּךָ</t>
+  </si>
+  <si>
+    <t>на Тебя</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> חָסִיתִי</t>
+  </si>
+  <si>
+    <t>уповаю</t>
   </si>
   <si>
     <t>הוֹשִׁיעֵנִי</t>
@@ -79,10 +103,16 @@
     <t>спаси меня</t>
   </si>
   <si>
-    <t>מִכָּל-רֹדְפַי</t>
-  </si>
-  <si>
-    <t>от всех гонителей моих</t>
+    <t>מִכָּל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">от всех </t>
+  </si>
+  <si>
+    <t>רֹדְפַי</t>
+  </si>
+  <si>
+    <t>гонителей моих</t>
   </si>
   <si>
     <t>וְהַצִּילֵנִי</t>
@@ -118,37 +148,52 @@
     <t>терзая</t>
   </si>
   <si>
-    <t>וְאֵין מַצִּיל</t>
-  </si>
-  <si>
-    <t>и некому спасать</t>
+    <t xml:space="preserve">וְאֵין </t>
+  </si>
+  <si>
+    <t xml:space="preserve">и некому </t>
+  </si>
+  <si>
+    <t>מַצִּיל</t>
+  </si>
+  <si>
+    <t>спасать</t>
   </si>
   <si>
     <t>ד</t>
   </si>
   <si>
-    <t>יְהוָה</t>
-  </si>
-  <si>
-    <t>Господи</t>
-  </si>
-  <si>
     <t>אֱלֹהַי</t>
   </si>
   <si>
-    <t>Боже мой</t>
-  </si>
-  <si>
-    <t>אִם-עָשִׂיתִי זֹאת</t>
-  </si>
-  <si>
-    <t>если я это сделал</t>
-  </si>
-  <si>
-    <t>אִם-יֵשׁ עָוֶל</t>
-  </si>
-  <si>
-    <t>если есть неправда</t>
+    <t>אִם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">если </t>
+  </si>
+  <si>
+    <t xml:space="preserve">עָשִׂיתִי </t>
+  </si>
+  <si>
+    <t>я сделал</t>
+  </si>
+  <si>
+    <t>זֹאת</t>
+  </si>
+  <si>
+    <t>это</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יֵשׁ </t>
+  </si>
+  <si>
+    <t>неправда</t>
+  </si>
+  <si>
+    <t>עָוֶל</t>
+  </si>
+  <si>
+    <t>есть</t>
   </si>
   <si>
     <t>בְּכַפָּי</t>
@@ -160,16 +205,19 @@
     <t>ה</t>
   </si>
   <si>
-    <t>אִם-גָּמַלְתִּי</t>
-  </si>
-  <si>
-    <t>если воздавал</t>
-  </si>
-  <si>
-    <t>שׁוֹלְמִי רָע</t>
-  </si>
-  <si>
-    <t>злом воздавал</t>
+    <t>גָּמַלְתִּי</t>
+  </si>
+  <si>
+    <t>воздавал</t>
+  </si>
+  <si>
+    <t>רָע</t>
+  </si>
+  <si>
+    <t xml:space="preserve">злом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שׁוֹלְמִי </t>
   </si>
   <si>
     <t>וָאֲחַלְּצָה</t>
@@ -178,10 +226,16 @@
     <t>и ограбил</t>
   </si>
   <si>
-    <t>צוֹרְרִי רֵיקָם</t>
-  </si>
-  <si>
-    <t>притеснителя моего</t>
+    <t xml:space="preserve">צוֹרְרִי </t>
+  </si>
+  <si>
+    <t>притеснителя</t>
+  </si>
+  <si>
+    <t>רֵיקָם</t>
+  </si>
+  <si>
+    <t>моего</t>
   </si>
   <si>
     <t>ו</t>
@@ -232,10 +286,16 @@
     <t>и славу мою</t>
   </si>
   <si>
-    <t>לֶעָפָר יַשְׁכֵּן</t>
-  </si>
-  <si>
-    <t>в прах повергнет</t>
+    <t>לֶעָפָר</t>
+  </si>
+  <si>
+    <t>в прах</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> יַשְׁכֵּן</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> повергнет</t>
   </si>
   <si>
     <t>סֶלָה</t>
@@ -283,10 +343,16 @@
     <t>и пробудись</t>
   </si>
   <si>
-    <t>אֵלַי מִשְׁפָּט</t>
-  </si>
-  <si>
-    <t>мне на суд</t>
+    <t xml:space="preserve">אֵלַי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">мне </t>
+  </si>
+  <si>
+    <t>מִשְׁפָּט</t>
+  </si>
+  <si>
+    <t>на суд</t>
   </si>
   <si>
     <t>צִוִּיתָ</t>
@@ -493,10 +559,10 @@
     <t>יג</t>
   </si>
   <si>
-    <t>אִם־לֹא</t>
-  </si>
-  <si>
-    <t>если не</t>
+    <t>לֹא</t>
+  </si>
+  <si>
+    <t>не</t>
   </si>
   <si>
     <t>יָשׁוּב</t>
@@ -737,7 +803,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -754,17 +820,27 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -773,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -787,7 +863,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1091,26 +1173,26 @@
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4">
-        <v>2.0</v>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2.0</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -1145,53 +1227,53 @@
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4">
-        <v>3.0</v>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
+      <c r="A18" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3.0</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -1199,1054 +1281,1198 @@
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4">
-        <v>4.0</v>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="4">
-        <v>6.0</v>
+        <v>55</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5.0</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="4">
-        <v>7.0</v>
+        <v>71</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>39</v>
+        <v>75</v>
+      </c>
+      <c r="B45" s="4">
+        <v>6.0</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="4">
-        <v>8.0</v>
+        <v>89</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="B57" s="4">
+        <v>7.0</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="4">
-        <v>9.0</v>
+        <v>100</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B71" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="7">
         <v>10.0</v>
       </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B80" s="5">
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" s="7">
         <v>11.0</v>
       </c>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B85" s="5">
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" s="7">
         <v>12.0</v>
       </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B87" s="7" t="s">
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="5">
+      <c r="B103" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B107" s="7">
         <v>13.0</v>
       </c>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B100" s="5">
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B116" s="7">
         <v>14.0</v>
       </c>
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C107" s="2"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B108" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B112" s="7" t="s">
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="6" t="s">
+      <c r="B117" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="6" t="s">
+      <c r="B118" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="5" t="s">
+      <c r="B119" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B115" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="6" t="s">
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B120" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="6" t="s">
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B121" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="C121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B124" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B122" s="8">
-        <v>17.0</v>
-      </c>
-      <c r="C122" s="2"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B123" s="7" t="s">
+      <c r="B126" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C123" s="2"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="6" t="s">
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B127" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="6" t="s">
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B128" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C125" s="2"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="6" t="s">
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B129" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="C126" s="2"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C127" s="2"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C128" s="2"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="C129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B130" s="8">
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B138" s="10">
+        <v>17.0</v>
+      </c>
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B146" s="10">
         <v>18.0</v>
       </c>
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C135" s="2"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C137" s="2"/>
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C153" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
